--- a/component-sourcing/OSCHISP_electrical_BOM_opta_v1.1.xlsx
+++ b/component-sourcing/OSCHISP_electrical_BOM_opta_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAST Research Group\Sheet Press\open-source-cold-and-hot-sheet-press\component-sourcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD650500-C27E-4171-B9C5-4CEDC41F94AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A6B476-D862-46F8-8192-4443134970E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -40,8 +40,180 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="16">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="16">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="108">
   <si>
     <t>https://www.digikey.ca/en/products/detail/weidm%C3%BCller/1024100000/497593</t>
   </si>
@@ -52,37 +224,13 @@
     <t>https://www.grainger.com/product/CRYDOM-Solid-State-Relay-DIN-Rail-21R970?opr=PDPRRDSP&amp;analytics=dsrrItems_21R969</t>
   </si>
   <si>
-    <t>https://www.grainger.com/product/CRYDOM-Solid-State-Relay-DIN-Rail-21R969</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/products/din-rail-mount-relays/din-rail-mount-touch-safe-screw-terminal-relays-7/</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/products/din-rail-mount-relays/touch-safe-din-rail-mount-infrequent-cycle-relays/</t>
-  </si>
-  <si>
     <t>https://www.grainger.com/product/SCHNEIDER-Open-Power-Relay-Surface-Mounted-6CUU5</t>
   </si>
   <si>
-    <t>SSR Din</t>
-  </si>
-  <si>
     <t>https://www.mouser.ca/ProductDetail/TE-Connectivity-PB/PRD-5DG0-12?qs=fDvdbkAhQ5Z2O7ppLJEKfw%3D%3D</t>
   </si>
   <si>
     <t>Mech relay, 600V 30A (12vdc_in) [panel mount]</t>
-  </si>
-  <si>
-    <t>Relay 1</t>
-  </si>
-  <si>
-    <t>Relay 2</t>
-  </si>
-  <si>
-    <t>Relay 3</t>
-  </si>
-  <si>
-    <t>Relay 4</t>
   </si>
   <si>
     <t>Thermocouple DIN Rail Terminal Blocks, Narrow 10.7 mm Width</t>
@@ -267,6 +415,132 @@
   </si>
   <si>
     <t>TCA-MS-K-8-A4_Thermocouple_Amplifier</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Width (in)</t>
+  </si>
+  <si>
+    <t>Height (in)</t>
+  </si>
+  <si>
+    <t>Depth (in)</t>
+  </si>
+  <si>
+    <t>Volume (ft^3)</t>
+  </si>
+  <si>
+    <t>ft^3 / $</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/6JYZ7_AS01?$mdmain$</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/4KP28_AS01?$mdmain$</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/6JYU8_AS01?$mdmain$</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/5AAA9_AS01?$mdmain$</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/32FG35_AS01?$mdmain$</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/mvC/Contents/gfx/ImageCache/405/4058N525multipositive_front_positive_right_standard15_1626723363_126@2x_637623025116138170.png?ver=ImageNotFound</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/mvC/Contents/gfx/ImageCache/537/5376k112-@2x_636995713220808620.png?ver=ImageNotFound</t>
+  </si>
+  <si>
+    <t>TCA-MS 8 Channel Amplifier - Type K Thermocouple</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/images/tycoelectronics/images/pr1h40138a.jpg</t>
+  </si>
+  <si>
+    <t>Single mechanical relay</t>
+  </si>
+  <si>
+    <t>4PST-NO, 24V DC Input, 20A Full Load @ 600V AC</t>
+  </si>
+  <si>
+    <t>Resistive load: 230V kW 6.3</t>
+  </si>
+  <si>
+    <t>3PST-NO with 1 Normally Open Contact, 12 Terminals, 24V DC Input</t>
+  </si>
+  <si>
+    <t>RELAY,SPST-NO-DM,4 PINS,24VDC Dayton</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/5YZ79_AS01?$zmmain$</t>
+  </si>
+  <si>
+    <t>ENCLOSED POWER RELAY,4 PIN,24VDC,SPST-NO</t>
+  </si>
+  <si>
+    <t>https://www.grainger.ca/en/product/ENCLOSED-POWER-RELAY%2C4-PIN%2C24VDC%2CSPST-NO/p/WWG6CVG8</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/6CVG4_AS01?$zmmain$</t>
+  </si>
+  <si>
+    <t>ENCLOSED POWER RELAY,4 PIN,24VDC,SPST-NO (SCHNEIDER ELECTRIC)</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/6CWZ0_GC01?$zmmain$</t>
+  </si>
+  <si>
+    <t>https://www.grainger.ca/en/product/ENCLOSED-POWER-RELAY%2C4-PIN%2C24VDC%2CSPST-NO/p/WWG6CWZ0</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/mvC/Contents/gfx/ImageCache/702/70255k552c1-d01c-digital-master1559317474-p9@1x_636949189622463610.png?ver=ImageNotFound</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/images/omron/images/J7KNA_series_DSL.jpg</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/mvC/Contents/gfx/ImageCache/911/9114t371c1-d01c-digital-master1551467810-p9@1x_636676078023373348.png?ver=ImageNotFound</t>
+  </si>
+  <si>
+    <t>DIN-Rail Solid-State Relay</t>
+  </si>
+  <si>
+    <t>CRYDOM Solid State Relay: DIN-Rail Mounted, 48 to 600V AC Output, Heat Sink Integral, SCR</t>
+  </si>
+  <si>
+    <t>https://static.grainger.com/rp/s/is/image/Grainger/21R957_AS02?$adapimg$&amp;hei=536&amp;wid=536</t>
+  </si>
+  <si>
+    <t>Pic</t>
+  </si>
+  <si>
+    <t>Touch-Safe DIN-Rail Infrequent-Cycle Relay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frigidaire 316442301 Surface Burner Element 8 inch 5 Turns </t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/dp/B0BH3MT898/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B0BH3MT898&amp;pd_rd_w=21TSq&amp;content-id=amzn1.sym.ee8c0ea9-41cf-4400-8d37-c11603ca4c8e&amp;pf_rd_p=ee8c0ea9-41cf-4400-8d37-c11603ca4c8e&amp;pf_rd_r=GED6PWV5TG305JX3XN71&amp;pd_rd_wg=slNCy&amp;pd_rd_r=4994d5b3-965c-4198-8102-3a7eeea17c11&amp;s=hi&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM</t>
+  </si>
+  <si>
+    <t>2 PER PACK</t>
+  </si>
+  <si>
+    <t>LXun Upgraded 2 Pack MP21YA 8" Electric Range Burner Element Unit Set</t>
+  </si>
+  <si>
+    <t>https://www.appliancepartspros.com/ge-8-inch-large-wb30m2-ap2634728.html</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/LXun-MP21YA-Replacement-Whirlpool-MP22YA/dp/B0BR5KLQ6G/ref=sr_1_8?crid=21SYYDM6789L7&amp;keywords=8%22+coil&amp;qid=1698065730&amp;sprefix=8+coil%2Caps%2C122&amp;sr=8-8</t>
   </si>
 </sst>
 </file>
@@ -276,7 +550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +618,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,7 +649,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -405,6 +687,41 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,6 +739,234 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_webimage">
+      <keyFlags>
+        <key name="WebImageIdentifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdRichValueWebImage.xml><?xml version="1.0" encoding="utf-8"?>
+<webImagesSrd xmlns="http://schemas.microsoft.com/office/spreadsheetml/2020/richdatawebimage" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <webImageSrd>
+    <address r:id="rId1"/>
+    <blip r:id="rId2"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId3"/>
+    <blip r:id="rId4"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId5"/>
+    <blip r:id="rId6"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId7"/>
+    <blip r:id="rId8"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId9"/>
+    <blip r:id="rId10"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId11"/>
+    <blip r:id="rId12"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId13"/>
+    <blip r:id="rId14"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId15"/>
+    <blip r:id="rId16"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId17"/>
+    <blip r:id="rId18"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId19"/>
+    <blip r:id="rId20"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId21"/>
+    <blip r:id="rId22"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId23"/>
+    <blip r:id="rId24"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId25"/>
+    <blip r:id="rId26"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId27"/>
+    <blip r:id="rId28"/>
+  </webImageSrd>
+  <webImageSrd>
+    <address r:id="rId29"/>
+    <blip r:id="rId30"/>
+  </webImageSrd>
+</webImagesSrd>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="16">
+  <rv s="0">
+    <v>0</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>2</v>
+    <v>10</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>1</v>
+    <v>0</v>
+    <v>0</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_webimage">
+    <k n="WebImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="ImageSizing" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,14 +1235,14 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="35" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="16" customWidth="1"/>
     <col min="5" max="5" width="11" style="16" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" style="3" customWidth="1"/>
@@ -709,36 +1254,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,9 +1291,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="3">
+        <v>63</v>
+      </c>
+      <c r="C3" s="35">
         <v>2</v>
       </c>
       <c r="D3" s="16">
@@ -759,7 +1304,7 @@
         <v>560.28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,9 +1312,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="35">
         <v>1</v>
       </c>
       <c r="D4" s="16">
@@ -780,10 +1325,10 @@
         <v>520.26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,9 +1336,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="3">
+        <v>57</v>
+      </c>
+      <c r="C5" s="35">
         <v>1</v>
       </c>
       <c r="D5" s="16">
@@ -804,34 +1349,73 @@
         <v>304.27</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
+      <c r="B6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>389</v>
+      </c>
       <c r="E6" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>389</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
+      <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="35">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>221.76</v>
+      </c>
       <c r="E7" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>221.76</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>100.29</v>
+      </c>
       <c r="E8" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100.29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1009,7 +1593,7 @@
     <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="4"/>
@@ -1018,22 +1602,27 @@
     <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1991,6 +2580,9 @@
     <hyperlink ref="F5" r:id="rId1" xr:uid="{1B5D742B-C152-4F43-8026-8936F0185893}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{3A26A74A-15C6-4542-8C84-BAB356404B34}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{CC81BF7D-E48D-4A68-9585-4597A8891CAB}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{BA315A26-C0EA-48A5-89E4-9149553DD608}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{FE78BB28-30B8-4010-B02D-C25DA992DF69}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{35B698E7-755C-4794-B0B3-7EE0BA4BC515}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2003,253 +2595,690 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9D2D70-AFB1-492D-8779-E3FA39548A3F}">
-  <dimension ref="A1:E999"/>
+  <dimension ref="A1:L999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="72.7109375" style="3" customWidth="1"/>
-    <col min="6" max="23" width="8.5703125" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="1" width="12.5703125" style="3"/>
+    <col min="2" max="2" width="7.7109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="72.7109375" style="3" customWidth="1"/>
+    <col min="7" max="9" width="12.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="3" customWidth="1"/>
+    <col min="11" max="24" width="8.5703125" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="e" vm="1">
+        <f t="shared" ref="A2:A26" si="0">_xlfn.IMAGE(L2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D2" s="32">
+        <v>290.62</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="26">
+        <v>19</v>
+      </c>
+      <c r="H2" s="26">
+        <v>17</v>
+      </c>
+      <c r="I2" s="26">
+        <v>11.5</v>
+      </c>
+      <c r="J2" s="29">
+        <f>I2*H2*G2 / (12^3)</f>
+        <v>2.1495949074074074</v>
+      </c>
+      <c r="K2" s="3">
+        <f>J2/D2*100</f>
+        <v>0.73965828484185792</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="e" vm="2">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="31">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="32">
+        <v>179.65</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3">
-        <v>290.62</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="26">
+        <v>17.75</v>
+      </c>
+      <c r="H3" s="26">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="I3" s="26">
+        <v>9.625</v>
+      </c>
+      <c r="J3" s="29">
+        <f t="shared" ref="J3:J10" si="1">I3*H3*G3 / (12^3)</f>
+        <v>1.612535626446759</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K10" si="2">J3/D3*100</f>
+        <v>0.89759845613512879</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="e" vm="3">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" s="31">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="33">
+        <v>197.35</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="26">
+        <v>24</v>
+      </c>
+      <c r="H4" s="26">
+        <v>18</v>
+      </c>
+      <c r="I4" s="26">
+        <v>6</v>
+      </c>
+      <c r="J4" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76007093995439579</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="e" vm="4">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="31">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="33">
+        <v>194.01</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="26">
+        <v>18</v>
+      </c>
+      <c r="H5" s="26">
+        <v>18</v>
+      </c>
+      <c r="I5" s="26">
+        <v>8</v>
+      </c>
+      <c r="J5" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.77315602288541829</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="e" vm="4">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" s="31">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="33">
+        <v>242.76</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="26">
+        <v>18</v>
+      </c>
+      <c r="H6" s="26">
+        <v>15</v>
+      </c>
+      <c r="I6" s="26">
+        <v>8</v>
+      </c>
+      <c r="J6" s="29">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.51491184709177795</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="e" vm="5">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="31">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="33">
+        <v>220.15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="26">
+        <v>24</v>
+      </c>
+      <c r="H7" s="26">
+        <v>24</v>
+      </c>
+      <c r="I7" s="26">
+        <v>6</v>
+      </c>
+      <c r="J7" s="29">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="3">
-        <v>179.65</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90847149670679073</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="e" vm="3">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" s="31">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="33">
+        <v>197.35</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="26">
+        <v>24</v>
+      </c>
+      <c r="H8" s="26">
+        <v>18</v>
+      </c>
+      <c r="I8" s="26">
+        <v>6</v>
+      </c>
+      <c r="J8" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.76007093995439579</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="e" vm="6">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" s="31">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="33">
+        <v>257.13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="26">
+        <v>14</v>
+      </c>
+      <c r="H9" s="26">
+        <v>16</v>
+      </c>
+      <c r="I9" s="26">
+        <v>6</v>
+      </c>
+      <c r="J9" s="29">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.30248426001546991</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="e" vm="7">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B10" s="31">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="33">
+        <v>233.33</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="26">
+        <v>18</v>
+      </c>
+      <c r="H10" s="26">
+        <v>18</v>
+      </c>
+      <c r="I10" s="26">
+        <v>8</v>
+      </c>
+      <c r="J10" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.64286632666180943</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" s="31">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B12" s="31">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B13" s="31">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" s="31">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" s="31">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B16" s="31">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" s="31">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B18" s="31">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B19" s="31">
+        <v>18</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B20" s="31">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B21" s="31">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="31">
+        <v>21</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" s="31">
+        <v>22</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B24" s="31">
+        <v>23</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B25" s="31">
+        <v>24</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B26" s="31">
         <v>25</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F26" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="27"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="27"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="27"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3202,16 +4231,88 @@
     <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <conditionalFormatting sqref="D2:D1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{593D029B-D6D8-4C3A-A1A6-5AA5AC8D5BCD}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{93AA34FB-9F30-446B-B2A1-39C2CE91E27F}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{796AC149-88AE-47EF-82A3-A325BC18F66E}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{66746319-8FFC-46A7-A9CB-BB001FDE979A}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{78A0F1D8-F5E9-4665-8151-644CE9EBCA66}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{D70FCED4-F101-4DAC-A205-8CF2CA80074C}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{BD452701-0190-4027-9150-1B4E8FF44F0F}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{06BC8F9C-14DD-4B3A-AE40-4CEC302171CE}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{9B90D40D-839D-4609-8FAC-7DDDF7BA8F12}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{593D029B-D6D8-4C3A-A1A6-5AA5AC8D5BCD}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{93AA34FB-9F30-446B-B2A1-39C2CE91E27F}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{796AC149-88AE-47EF-82A3-A325BC18F66E}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{66746319-8FFC-46A7-A9CB-BB001FDE979A}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{78A0F1D8-F5E9-4665-8151-644CE9EBCA66}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{D70FCED4-F101-4DAC-A205-8CF2CA80074C}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{BD452701-0190-4027-9150-1B4E8FF44F0F}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{06BC8F9C-14DD-4B3A-AE40-4CEC302171CE}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{9B90D40D-839D-4609-8FAC-7DDDF7BA8F12}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3226,8 +4327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4D631-CFAC-4001-BD2E-084BBD95D250}">
   <dimension ref="A1:G999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3243,19 +4344,19 @@
   <sheetData>
     <row r="1" spans="1:7" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3263,13 +4364,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C2" s="16">
         <v>389</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3277,13 +4378,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C3" s="16">
         <v>33.58</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3291,13 +4392,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C4" s="16">
         <v>33.58</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3316,10 +4417,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,7 +4428,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>0</v>
@@ -3338,10 +4439,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3349,10 +4450,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3360,10 +4461,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3387,7 +4488,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4449,283 +5550,459 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F792320D-D908-4962-BFC0-6D2D9C9A6B1F}">
-  <dimension ref="A1:H999"/>
+  <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="72.7109375" style="3" customWidth="1"/>
-    <col min="6" max="23" width="8.5703125" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="12.5703125" style="3"/>
+    <col min="1" max="1" width="12.5703125" style="3"/>
+    <col min="2" max="2" width="7.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="72.7109375" style="3" customWidth="1"/>
+    <col min="7" max="24" width="8.5703125" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>48</v>
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="e" vm="9">
+        <f>_xlfn.IMAGE(G2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>56.25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="e" vm="10">
+        <f t="shared" ref="A3:A26" si="0">_xlfn.IMAGE(G3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>100.29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="e" vm="11">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3">
+        <v>115.65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="e" vm="12">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>115.65</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="e" vm="13">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3">
+        <v>80.59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="e" vm="14">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="e" vm="15">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45.39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="e" vm="16">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18.21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B13" s="5">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" s="5">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B16" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B18" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B19" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B20" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B21" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B24" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B25" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="e" vm="8">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B26" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="4"/>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5695,9 +6972,13 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{7A74FCFB-8CF6-4872-A2C7-42FC6884764A}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{989F6291-BF10-4D02-BA04-C281C0F1CD61}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{421647BE-867F-4E90-A8AD-47E5CCAD4D89}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{7A74FCFB-8CF6-4872-A2C7-42FC6884764A}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{989F6291-BF10-4D02-BA04-C281C0F1CD61}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{DF194CEC-EB7E-4216-A8FA-F106C15F3C1D}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{135A66CB-F1CB-4155-8FD8-0950AB1B44E5}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{EF033802-92AA-4CDB-8A72-7E31368AC54B}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{9718768E-4DC2-48E0-A329-451E3EF992B1}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{F8EEDD0D-5E29-4647-AF44-351460B84990}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5713,7 +6994,7 @@
   <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5729,19 +7010,19 @@
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5749,13 +7030,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C2" s="9">
         <v>221.76</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -5767,13 +7048,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3">
         <v>304.27</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -6935,256 +8216,366 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D266A56B-0A94-49E2-A541-39F0F7B0EAA5}">
-  <dimension ref="A1:H999"/>
+  <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="50.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="72.7109375" style="3" customWidth="1"/>
-    <col min="6" max="23" width="8.5703125" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="12.5703125" style="3"/>
+    <col min="3" max="4" width="17.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="72.7109375" style="3" customWidth="1"/>
+    <col min="7" max="24" width="8.5703125" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="13">
+        <f>36+24</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C2" s="9">
         <v>43.46</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="9"/>
+      <c r="D2" s="9">
+        <f>C2*$G$1</f>
+        <v>2607.6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>65</v>
+      <c r="B3" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="C3" s="3">
-        <v>304.27</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39.99</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D26" si="0">C3*$G$1</f>
+        <v>2399.4</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="G4"/>
+      <c r="B4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3">
+        <f>37.2/2</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>1116</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
       <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="D5"/>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E5"/>
-      <c r="G5"/>
+      <c r="F5"/>
       <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6"/>
-      <c r="D6"/>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E6"/>
-      <c r="G6"/>
+      <c r="F6"/>
       <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7"/>
-      <c r="D7"/>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E7"/>
-      <c r="G7"/>
+      <c r="F7"/>
       <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8"/>
-      <c r="D8"/>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E8"/>
-      <c r="G8"/>
+      <c r="F8"/>
       <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9"/>
-      <c r="D9"/>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E9"/>
-      <c r="G9"/>
+      <c r="F9"/>
       <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10"/>
-      <c r="D10" s="1"/>
-      <c r="E10"/>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="D11"/>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="D12"/>
-      <c r="E12" s="22">
-        <v>43.46</v>
-      </c>
-      <c r="F12">
-        <f>24+36</f>
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <f>E12*F12</f>
-        <v>2607.6</v>
-      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" s="22"/>
+      <c r="G12"/>
       <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="7"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8154,8 +9545,9 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D18550A3-BD5E-406B-B9C7-542A3CB18B64}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{B5450172-9229-473C-883C-8E04872EC81D}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{CA560D37-4B8B-4521-955F-AD29155A47BE}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://www.amazon.ca/dp/B0BH3MT898/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B0BH3MT898&amp;pd_rd_w=21TSq&amp;content-id=amzn1.sym.ee8c0ea9-41cf-4400-8d37-c11603ca4c8e&amp;pf_rd_p=ee8c0ea9-41cf-4400-8d37-c11603ca4c8e&amp;pf_rd_r=GED6PWV5TG305JX3XN71&amp;pd_rd_wg=slNCy&amp;pd_rd_r=4994d5b3-965c-4198-8102-3a7eeea17c11&amp;s=hi&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWM" xr:uid="{E7DB6ECC-3A28-4106-8BDC-F5E2EEEE5E31}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{EDA555F3-13EF-47A0-AE39-6E11106716A9}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
